--- a/data/token/USDT.xlsx
+++ b/data/token/USDT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="1021">
   <si>
     <t>Date</t>
   </si>
@@ -2744,6 +2744,339 @@
   </si>
   <si>
     <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-09-29</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>2023-03-11</t>
+  </si>
+  <si>
+    <t>2023-02-25</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-02-19</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-12</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2022-12-25</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
+    <t>2022-12-03</t>
+  </si>
+  <si>
+    <t>2022-11-12</t>
+  </si>
+  <si>
+    <t>2022-11-11</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-09-25</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>2022-09-10</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>2024-10-27</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
+    <t>2024-10-30</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>2024-11-02</t>
+  </si>
+  <si>
+    <t>2024-11-03</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>2024-10-06</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
+  </si>
+  <si>
+    <t>2024-10-13</t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
+  </si>
+  <si>
+    <t>2024-10-20</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>2024-10-26</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>2024-11-07</t>
+  </si>
+  <si>
+    <t>2024-11-09</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>2023-02-11</t>
+  </si>
+  <si>
+    <t>2022-11-25</t>
+  </si>
+  <si>
+    <t>2022-11-24</t>
+  </si>
+  <si>
+    <t>2022-11-20</t>
+  </si>
+  <si>
+    <t>2022-11-19</t>
+  </si>
+  <si>
+    <t>2022-11-16</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>2024-02-10</t>
   </si>
 </sst>
 </file>
@@ -3101,7 +3434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B909"/>
+  <dimension ref="A1:B1020"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10379,6 +10712,894 @@
         <v>1</v>
       </c>
     </row>
+    <row r="910" spans="1:2">
+      <c r="A910" t="s">
+        <v>910</v>
+      </c>
+      <c r="B910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" t="s">
+        <v>911</v>
+      </c>
+      <c r="B911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" t="s">
+        <v>912</v>
+      </c>
+      <c r="B912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" t="s">
+        <v>913</v>
+      </c>
+      <c r="B913">
+        <v>1.003</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" t="s">
+        <v>914</v>
+      </c>
+      <c r="B914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" t="s">
+        <v>915</v>
+      </c>
+      <c r="B915">
+        <v>0.9998</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" t="s">
+        <v>916</v>
+      </c>
+      <c r="B916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" t="s">
+        <v>917</v>
+      </c>
+      <c r="B917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" t="s">
+        <v>918</v>
+      </c>
+      <c r="B918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" t="s">
+        <v>919</v>
+      </c>
+      <c r="B919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" t="s">
+        <v>920</v>
+      </c>
+      <c r="B920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" t="s">
+        <v>921</v>
+      </c>
+      <c r="B921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" t="s">
+        <v>922</v>
+      </c>
+      <c r="B922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" t="s">
+        <v>923</v>
+      </c>
+      <c r="B923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" t="s">
+        <v>924</v>
+      </c>
+      <c r="B924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" t="s">
+        <v>925</v>
+      </c>
+      <c r="B925">
+        <v>0.9998</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" t="s">
+        <v>926</v>
+      </c>
+      <c r="B926">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" t="s">
+        <v>927</v>
+      </c>
+      <c r="B927">
+        <v>0.9998</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" t="s">
+        <v>928</v>
+      </c>
+      <c r="B928">
+        <v>0.9993</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" t="s">
+        <v>929</v>
+      </c>
+      <c r="B929">
+        <v>0.9996</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" t="s">
+        <v>930</v>
+      </c>
+      <c r="B930">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" t="s">
+        <v>931</v>
+      </c>
+      <c r="B931">
+        <v>0.9998</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" t="s">
+        <v>932</v>
+      </c>
+      <c r="B932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" t="s">
+        <v>933</v>
+      </c>
+      <c r="B933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" t="s">
+        <v>934</v>
+      </c>
+      <c r="B934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" t="s">
+        <v>935</v>
+      </c>
+      <c r="B935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" t="s">
+        <v>936</v>
+      </c>
+      <c r="B936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" t="s">
+        <v>937</v>
+      </c>
+      <c r="B937">
+        <v>0.9969</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" t="s">
+        <v>938</v>
+      </c>
+      <c r="B938">
+        <v>0.9975000000000001</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" t="s">
+        <v>939</v>
+      </c>
+      <c r="B939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" t="s">
+        <v>940</v>
+      </c>
+      <c r="B940">
+        <v>0.9999</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" t="s">
+        <v>941</v>
+      </c>
+      <c r="B941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" t="s">
+        <v>942</v>
+      </c>
+      <c r="B942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" t="s">
+        <v>943</v>
+      </c>
+      <c r="B943">
+        <v>0.9998</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" t="s">
+        <v>944</v>
+      </c>
+      <c r="B944">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" t="s">
+        <v>945</v>
+      </c>
+      <c r="B945">
+        <v>0.9999</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" t="s">
+        <v>946</v>
+      </c>
+      <c r="B946">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" t="s">
+        <v>947</v>
+      </c>
+      <c r="B947">
+        <v>0.9995000000000001</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" t="s">
+        <v>948</v>
+      </c>
+      <c r="B948">
+        <v>0.9991</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" t="s">
+        <v>949</v>
+      </c>
+      <c r="B949">
+        <v>0.9988</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" t="s">
+        <v>950</v>
+      </c>
+      <c r="B950">
+        <v>0.9988</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" t="s">
+        <v>951</v>
+      </c>
+      <c r="B951">
+        <v>0.9995000000000001</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" t="s">
+        <v>952</v>
+      </c>
+      <c r="B952">
+        <v>0.9998</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" t="s">
+        <v>953</v>
+      </c>
+      <c r="B953">
+        <v>0.9987</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" t="s">
+        <v>954</v>
+      </c>
+      <c r="B954">
+        <v>0.9996</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" t="s">
+        <v>955</v>
+      </c>
+      <c r="B955">
+        <v>0.9998</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" t="s">
+        <v>956</v>
+      </c>
+      <c r="B956">
+        <v>0.9996</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" t="s">
+        <v>957</v>
+      </c>
+      <c r="B957">
+        <v>0.9994</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" t="s">
+        <v>958</v>
+      </c>
+      <c r="B958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" t="s">
+        <v>959</v>
+      </c>
+      <c r="B959">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" t="s">
+        <v>960</v>
+      </c>
+      <c r="B960">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" t="s">
+        <v>961</v>
+      </c>
+      <c r="B961">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" t="s">
+        <v>962</v>
+      </c>
+      <c r="B962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" t="s">
+        <v>963</v>
+      </c>
+      <c r="B963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" t="s">
+        <v>964</v>
+      </c>
+      <c r="B964">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" t="s">
+        <v>965</v>
+      </c>
+      <c r="B965">
+        <v>0.9995000000000001</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" t="s">
+        <v>966</v>
+      </c>
+      <c r="B966">
+        <v>0.9992</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" t="s">
+        <v>967</v>
+      </c>
+      <c r="B967">
+        <v>0.9992</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" t="s">
+        <v>968</v>
+      </c>
+      <c r="B968">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" t="s">
+        <v>969</v>
+      </c>
+      <c r="B969">
+        <v>0.9999</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" t="s">
+        <v>970</v>
+      </c>
+      <c r="B970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" t="s">
+        <v>971</v>
+      </c>
+      <c r="B971">
+        <v>0.9998</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" t="s">
+        <v>972</v>
+      </c>
+      <c r="B972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" t="s">
+        <v>973</v>
+      </c>
+      <c r="B973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" t="s">
+        <v>974</v>
+      </c>
+      <c r="B974">
+        <v>0.9998</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" t="s">
+        <v>975</v>
+      </c>
+      <c r="B975">
+        <v>0.9995000000000001</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" t="s">
+        <v>976</v>
+      </c>
+      <c r="B976">
+        <v>0.9981</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" t="s">
+        <v>977</v>
+      </c>
+      <c r="B977">
+        <v>0.9997</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" t="s">
+        <v>978</v>
+      </c>
+      <c r="B978">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" t="s">
+        <v>979</v>
+      </c>
+      <c r="B979">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" t="s">
+        <v>980</v>
+      </c>
+      <c r="B980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" t="s">
+        <v>981</v>
+      </c>
+      <c r="B981">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" t="s">
+        <v>982</v>
+      </c>
+      <c r="B982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" t="s">
+        <v>983</v>
+      </c>
+      <c r="B983">
+        <v>0.9992</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" t="s">
+        <v>984</v>
+      </c>
+      <c r="B984">
+        <v>0.9991</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" t="s">
+        <v>985</v>
+      </c>
+      <c r="B985">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" t="s">
+        <v>986</v>
+      </c>
+      <c r="B986">
+        <v>0.9987</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" t="s">
+        <v>987</v>
+      </c>
+      <c r="B987">
+        <v>0.9988</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" t="s">
+        <v>988</v>
+      </c>
+      <c r="B988">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" t="s">
+        <v>989</v>
+      </c>
+      <c r="B989">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" t="s">
+        <v>990</v>
+      </c>
+      <c r="B990">
+        <v>1.003</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" t="s">
+        <v>991</v>
+      </c>
+      <c r="B991">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" t="s">
+        <v>992</v>
+      </c>
+      <c r="B992">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" t="s">
+        <v>993</v>
+      </c>
+      <c r="B993">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" t="s">
+        <v>994</v>
+      </c>
+      <c r="B994">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" t="s">
+        <v>995</v>
+      </c>
+      <c r="B995">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" t="s">
+        <v>996</v>
+      </c>
+      <c r="B996">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" t="s">
+        <v>997</v>
+      </c>
+      <c r="B997">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" t="s">
+        <v>998</v>
+      </c>
+      <c r="B998">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" t="s">
+        <v>999</v>
+      </c>
+      <c r="B999">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1000">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1002">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1003">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="A1005" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1005">
+        <v>1.003</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="A1006" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1006">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="A1008" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1008">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="A1009" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1009">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1010">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1011">
+        <v>0.9996</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1012">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1013">
+        <v>0.9991</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="A1016" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="A1017" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1018">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1019">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="A1020" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1020">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/token/USDT.xlsx
+++ b/data/token/USDT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="1047">
   <si>
     <t>Date</t>
   </si>
@@ -3077,6 +3077,84 @@
   </si>
   <si>
     <t>2024-02-10</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-08-05</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2023-03-07</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-05</t>
+  </si>
+  <si>
+    <t>2023-03-04</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>2024-11-23</t>
+  </si>
+  <si>
+    <t>2024-11-24</t>
   </si>
 </sst>
 </file>
@@ -3434,7 +3512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1020"/>
+  <dimension ref="A1:B1046"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11600,6 +11678,214 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2">
+      <c r="A1022" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="A1023" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1023">
+        <v>0.9987</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="A1024" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1024">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="A1025" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1026">
+        <v>0.9999</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="A1027" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="A1029" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="A1030" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2">
+      <c r="A1031" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1031">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2">
+      <c r="A1032" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2">
+      <c r="A1033" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2">
+      <c r="A1035" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2">
+      <c r="A1037" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1037">
+        <v>0.9999</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="A1038" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2">
+      <c r="A1039" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1039">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2">
+      <c r="A1040" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2">
+      <c r="A1041" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1041">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2">
+      <c r="A1042" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1042">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2">
+      <c r="A1043" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1043">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2">
+      <c r="A1044" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1044">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2">
+      <c r="A1045" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1045">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2">
+      <c r="A1046" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1046">
+        <v>1.001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
